--- a/Mondadori Multiple Datasource.xlsx
+++ b/Mondadori Multiple Datasource.xlsx
@@ -35,7 +35,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="RISERVATEZZA" vbProcedure="false">copertina!#ref!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="STATO" vbProcedure="false">copertina!#ref!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="VERSIONE" vbProcedure="false">copertina!#ref!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="true">Utente!$A$1:$D$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="true">Utente!$A$1:$F$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="true">'Utente Entity'!$A$1:$D$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="true">Genere!$A$1:$A$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">'Libri d''autore'!$A$4:$I$18</definedName>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="54">
   <si>
     <t xml:space="preserve">DATA ESTRAZIONE </t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>Data di nascita</t>
+  </si>
+  <si>
+    <t>Immagine</t>
+  </si>
+  <si>
+    <t>Path</t>
   </si>
   <si>
     <t>Rossi</t>
@@ -1407,8 +1413,165 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>809672</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>757428</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="809673" cy="757428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1308971</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1049578</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1308971" cy="1049579"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>809672</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>757428</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="809673" cy="757428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1308971</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1049578</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1308971" cy="1049579"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" createdVersion="3" minRefreshableVersion="3" refreshedVersion="3" refreshedBy="Apache POI" refreshedDate="1.60315351388E12" refreshOnLoad="true" r:id="rId1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" createdVersion="3" minRefreshableVersion="3" refreshedVersion="3" refreshedBy="Apache POI" refreshedDate="1.603154193174E12" refreshOnLoad="true" r:id="rId1">
   <cacheSource type="worksheet">
     <worksheetSource sheet="Libri d'autore" ref="A4:I19"/>
   </cacheSource>
@@ -1659,7 +1822,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="n">
-        <v>44124.100835868056</v>
+        <v>44124.10869390046</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1689,8 +1852,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1700,6 +1863,8 @@
     <col min="2" max="2" width="20.234375" customWidth="true"/>
     <col min="3" max="3" width="20.234375" customWidth="true"/>
     <col min="4" max="4" width="20.234375" customWidth="true"/>
+    <col min="5" max="5" width="20.234375" customWidth="true"/>
+    <col min="6" max="6" width="20.234375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="56.8" customHeight="true">
@@ -1715,43 +1880,54 @@
       <c r="D1" s="15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="E1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="85.2" customHeight="true">
       <c r="A2" s="16" t="n">
         <v>7.0</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" s="18" t="n">
         <v>22111.0</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" ht="85.2" customHeight="true">
       <c r="A3" s="16" t="n">
         <v>5.0</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="18" t="n">
         <v>31788.0</v>
       </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <autoFilter ref="A1:D3"/>
+  <autoFilter ref="A1:F3"/>
   <pageMargins bottom="1.5" footer="0.3" header="0.3" left="1.5" right="1.5" top="1.5"/>
   <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddFooter>&amp;RPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1780,68 +1956,68 @@
         <v>4</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>17</v>
-      </c>
       <c r="D5" s="17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -1849,7 +2025,7 @@
     </row>
     <row r="7">
       <c r="A7" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -1857,7 +2033,7 @@
     </row>
     <row r="8">
       <c r="A8" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -1865,7 +2041,7 @@
     </row>
     <row r="9">
       <c r="A9" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -1873,7 +2049,7 @@
     </row>
     <row r="10">
       <c r="A10" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -1903,42 +2079,42 @@
   <sheetData>
     <row r="1" ht="56.8" customHeight="true">
       <c r="A1" s="15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1973,18 +2149,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" ht="56.8" customHeight="true">
       <c r="B3" s="144" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C3" s="146"/>
       <c r="D3" s="148"/>
       <c r="E3" s="150"/>
       <c r="F3" s="184" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G3" s="186"/>
       <c r="H3" s="188"/>
@@ -1992,7 +2168,7 @@
     </row>
     <row r="4" ht="56.8" customHeight="true">
       <c r="A4" s="111" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B4" s="114" t="s">
         <v>4</v>
@@ -2001,22 +2177,22 @@
         <v>3</v>
       </c>
       <c r="D4" s="96" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E4" s="115" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F4" s="154" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G4" s="102" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H4" s="104" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I4" s="155" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
@@ -2024,22 +2200,22 @@
         <v>1.0</v>
       </c>
       <c r="B5" s="116" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>8</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>6</v>
       </c>
       <c r="D5" s="23" t="n">
         <v>22111.0</v>
       </c>
       <c r="E5" s="117" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F5" s="156" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H5" s="24" t="n">
         <v>2018.0</v>
@@ -2053,22 +2229,22 @@
         <v>1.0</v>
       </c>
       <c r="B6" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="26" t="s">
         <v>8</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>6</v>
       </c>
       <c r="D6" s="27" t="n">
         <v>22111.0</v>
       </c>
       <c r="E6" s="119" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F6" s="158" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H6" s="28" t="n">
         <v>2019.0</v>
@@ -2082,22 +2258,22 @@
         <v>1.0</v>
       </c>
       <c r="B7" s="120" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="22" t="s">
         <v>8</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>6</v>
       </c>
       <c r="D7" s="23" t="n">
         <v>22111.0</v>
       </c>
       <c r="E7" s="121" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F7" s="160" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H7" s="24" t="n">
         <v>2020.0</v>
@@ -2111,22 +2287,22 @@
         <v>1.0</v>
       </c>
       <c r="B8" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>8</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>6</v>
       </c>
       <c r="D8" s="27" t="n">
         <v>22111.0</v>
       </c>
       <c r="E8" s="123" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F8" s="162" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H8" s="28" t="n">
         <v>2019.0</v>
@@ -2140,22 +2316,22 @@
         <v>1.0</v>
       </c>
       <c r="B9" s="124" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="22" t="s">
         <v>8</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>6</v>
       </c>
       <c r="D9" s="23" t="n">
         <v>22111.0</v>
       </c>
       <c r="E9" s="125" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F9" s="164" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H9" s="24" t="n">
         <v>2020.0</v>
@@ -2169,22 +2345,22 @@
         <v>1.0</v>
       </c>
       <c r="B10" s="126" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="26" t="s">
         <v>8</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>6</v>
       </c>
       <c r="D10" s="27" t="n">
         <v>22111.0</v>
       </c>
       <c r="E10" s="127" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F10" s="166" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H10" s="28" t="n">
         <v>2018.0</v>
@@ -2198,22 +2374,22 @@
         <v>1.0</v>
       </c>
       <c r="B11" s="128" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="22" t="s">
         <v>8</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>6</v>
       </c>
       <c r="D11" s="23" t="n">
         <v>22111.0</v>
       </c>
       <c r="E11" s="129" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F11" s="168" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H11" s="24" t="n">
         <v>2019.0</v>
@@ -2227,22 +2403,22 @@
         <v>1.0</v>
       </c>
       <c r="B12" s="130" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="26" t="s">
         <v>8</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>6</v>
       </c>
       <c r="D12" s="27" t="n">
         <v>22111.0</v>
       </c>
       <c r="E12" s="131" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F12" s="170" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H12" s="28" t="n">
         <v>2020.0</v>
@@ -2256,22 +2432,22 @@
         <v>1.0</v>
       </c>
       <c r="B13" s="132" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>8</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>6</v>
       </c>
       <c r="D13" s="23" t="n">
         <v>22111.0</v>
       </c>
       <c r="E13" s="133" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F13" s="172" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H13" s="24" t="n">
         <v>2020.0</v>
@@ -2285,22 +2461,22 @@
         <v>2.0</v>
       </c>
       <c r="B14" s="134" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D14" s="27" t="n">
         <v>16520.0</v>
       </c>
       <c r="E14" s="135" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F14" s="174" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H14" s="28" t="n">
         <v>2019.0</v>
@@ -2314,22 +2490,22 @@
         <v>2.0</v>
       </c>
       <c r="B15" s="136" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D15" s="23" t="n">
         <v>16520.0</v>
       </c>
       <c r="E15" s="137" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F15" s="176" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H15" s="24" t="n">
         <v>2020.0</v>
@@ -2343,22 +2519,22 @@
         <v>2.0</v>
       </c>
       <c r="B16" s="138" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D16" s="27" t="n">
         <v>16520.0</v>
       </c>
       <c r="E16" s="139" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F16" s="178" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H16" s="28" t="n">
         <v>2019.0</v>
@@ -2372,22 +2548,22 @@
         <v>2.0</v>
       </c>
       <c r="B17" s="140" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D17" s="23" t="n">
         <v>16520.0</v>
       </c>
       <c r="E17" s="141" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F17" s="180" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H17" s="24" t="n">
         <v>2020.0</v>
@@ -2401,22 +2577,22 @@
         <v>2.0</v>
       </c>
       <c r="B18" s="145" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C18" s="147" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D18" s="149" t="n">
         <v>16520.0</v>
       </c>
       <c r="E18" s="151" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F18" s="185" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G18" s="187" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H18" s="189" t="n">
         <v>2020.0</v>
@@ -2427,7 +2603,7 @@
     </row>
     <row r="19">
       <c r="A19" s="33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B19" s="53"/>
       <c r="C19" s="55"/>
